--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC280.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC280.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1567,6 +1572,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,7 +1671,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1772,7 +1777,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,10 +1802,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>715366</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>507764</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>638264</xdr:rowOff>
+      <xdr:rowOff>396875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1824,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16375063" y="2293938"/>
-          <a:ext cx="7097116" cy="638264"/>
+          <a:ext cx="4413014" cy="396875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,15 +1841,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>174625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:colOff>1547813</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:rowOff>384342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1867,8 +1872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="2992438"/>
-          <a:ext cx="2171700" cy="457200"/>
+          <a:off x="16549688" y="3087688"/>
+          <a:ext cx="1373188" cy="289092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,15 +1885,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>103189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:colOff>1333499</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:rowOff>393573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1911,8 +1916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="3524250"/>
-          <a:ext cx="1762125" cy="457200"/>
+          <a:off x="16589375" y="3627439"/>
+          <a:ext cx="1119187" cy="290384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,13 +1931,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>299152</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54053</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>399131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1955,8 +1960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="4048125"/>
-          <a:ext cx="5029902" cy="562053"/>
+          <a:off x="16375063" y="4048126"/>
+          <a:ext cx="3571875" cy="399130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,15 +1973,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>293688</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1825626</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:rowOff>798256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1999,8 +2004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="5087938"/>
-          <a:ext cx="4362450" cy="1143000"/>
+          <a:off x="16668751" y="5484813"/>
+          <a:ext cx="1531938" cy="401381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,15 +2017,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>71438</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2090102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2043,8 +2048,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="6357938"/>
-          <a:ext cx="8258175" cy="1428750"/>
+          <a:off x="16446501" y="6357938"/>
+          <a:ext cx="2018664" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,7 +2089,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2092,6 +2097,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2125,7 +2144,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2133,6 +2152,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2166,7 +2199,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2174,6 +2207,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2207,7 +2254,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2215,6 +2262,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2248,7 +2309,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2256,6 +2317,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2289,7 +2364,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2297,6 +2372,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2330,7 +2419,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2338,6 +2427,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2673,9 +2776,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2796,8 @@
     <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="35.375" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
@@ -2721,14 +2825,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2752,12 +2856,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <v>11</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2781,10 +2885,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2813,8 +2917,8 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2898,12 +3002,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2993,7 +3097,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="78" t="s">
         <v>190</v>
       </c>
       <c r="K10" s="64" t="s">
@@ -3009,7 +3113,7 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -3038,7 +3142,7 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="78" t="s">
         <v>193</v>
       </c>
       <c r="K11" s="65"/>
@@ -3052,7 +3156,7 @@
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C12" s="20" t="str">
@@ -3081,7 +3185,7 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="78" t="s">
         <v>194</v>
       </c>
       <c r="K12" s="64"/>
@@ -3095,7 +3199,7 @@
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="20" t="str">
@@ -3124,7 +3228,7 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="78" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="64"/>
@@ -3138,7 +3242,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C14" s="20" t="str">
@@ -3167,7 +3271,7 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="78" t="s">
         <v>193</v>
       </c>
       <c r="K14" s="64"/>
@@ -3210,7 +3314,7 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="78" t="s">
         <v>195</v>
       </c>
       <c r="K15" s="66" t="s">
@@ -3255,7 +3359,7 @@
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J16" s="109" t="s">
+      <c r="J16" s="78" t="s">
         <v>196</v>
       </c>
       <c r="K16" s="68" t="s">
@@ -3300,7 +3404,7 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="109" t="s">
+      <c r="J17" s="78" t="s">
         <v>197</v>
       </c>
       <c r="K17" s="66" t="s">
@@ -3316,7 +3420,7 @@
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="78" t="s">
         <v>192</v>
       </c>
       <c r="C18" s="20" t="str">
@@ -3345,7 +3449,7 @@
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J18" s="109" t="s">
+      <c r="J18" s="78" t="s">
         <v>198</v>
       </c>
       <c r="K18" s="66"/>
@@ -6247,25 +6351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6273,11 +6377,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6328,11 +6432,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6377,12 +6481,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6476,14 +6580,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6516,12 +6620,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6561,12 +6665,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6582,12 +6686,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6978,40 +7082,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
